--- a/biology/Zoologie/Guibemantis_punctatus/Guibemantis_punctatus.xlsx
+++ b/biology/Zoologie/Guibemantis_punctatus/Guibemantis_punctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis punctatus est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis punctatus est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans la réserve spéciale d'Ambohitantely[1].
-C'est une espèce arboricole qui vit dans la forêt tropicale humide. On la trouve généralement sur les feuilles de Pandanus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans la réserve spéciale d'Ambohitantely.
+C'est une espèce arboricole qui vit dans la forêt tropicale humide. On la trouve généralement sur les feuilles de Pandanus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis punctatus mesure de 23 à 25 mm pour les mâles et environ 27 mm pour les femelles. Son dos varie de vert-olive à brun clair avec de nombreuses taches sombres. Son ventre est clair. La peau de son dos est lisse. Les mâles ont de glandes fémorales parfois de couleur noirâtre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis punctatus mesure de 23 à 25 mm pour les mâles et environ 27 mm pour les femelles. Son dos varie de vert-olive à brun clair avec de nombreuses taches sombres. Son ventre est clair. La peau de son dos est lisse. Les mâles ont de glandes fémorales parfois de couleur noirâtre.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, latin, punctatus, « tacheté », lui a été donné en référence aux nombreuses taches sombres qui ornent son dos.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blommers-Schlösser, 1979 : Biosystematics of the Malagasy frogs I. Mantellinae (Ranidae). Beaufortia, vol. 29, p. 1-77.</t>
         </is>
